--- a/tmpp-core/src/main/resources/execute_plan_template.xlsx
+++ b/tmpp-core/src/main/resources/execute_plan_template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1947801D-FA9B-4CA2-8D06-569BDE32BAFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4900D4F-EC94-405E-BE69-6A43E228798A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,6 @@
     <t>序号</t>
   </si>
   <si>
-    <t>授课学院</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>开课专业</t>
   </si>
   <si>
@@ -45,10 +41,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>考试/考查</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>开课班级</t>
   </si>
   <si>
@@ -67,14 +59,23 @@
   <si>
     <t>人数</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属学院</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -198,7 +199,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -226,6 +227,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -513,40 +524,40 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="2"/>
-    <col min="2" max="2" width="14.75" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="17.875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="8" customWidth="1"/>
-    <col min="8" max="8" width="17.5" style="8" customWidth="1"/>
-    <col min="9" max="9" width="17.25" style="8" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="14.77734375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" style="8" customWidth="1"/>
     <col min="10" max="10" width="32" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="6">
         <v>2018</v>
@@ -556,43 +567,43 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="9"/>
       <c r="J2" s="10"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="H3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -600,11 +611,11 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="H4" s="13"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -612,11 +623,11 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="H5" s="13"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -624,11 +635,11 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="H6" s="13"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -636,11 +647,11 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="H7" s="13"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -648,11 +659,11 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="H8" s="13"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -660,11 +671,11 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="H9" s="13"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -672,11 +683,11 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="H10" s="13"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -684,11 +695,11 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="H11" s="13"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -696,11 +707,11 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="H12" s="13"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -708,11 +719,11 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="H13" s="13"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -720,11 +731,11 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="H14" s="13"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -732,11 +743,11 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="H15" s="13"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -744,11 +755,11 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -756,11 +767,11 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -768,11 +779,11 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="H18" s="13"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -780,11 +791,11 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="H19" s="13"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -792,11 +803,11 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="H20" s="13"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -804,11 +815,11 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="H21" s="13"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -816,11 +827,11 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="H22" s="13"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -828,11 +839,11 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="H23" s="13"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -840,11 +851,11 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="H24" s="13"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -852,11 +863,11 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="H25" s="13"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -864,11 +875,11 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="H26" s="13"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -876,11 +887,11 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="H27" s="13"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -888,7 +899,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="H28" s="13"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
     </row>

--- a/tmpp-core/src/main/resources/execute_plan_template.xlsx
+++ b/tmpp-core/src/main/resources/execute_plan_template.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4900D4F-EC94-405E-BE69-6A43E228798A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE155ED-0A13-4C7D-83E3-0FE4BFAB2CB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,10 +53,6 @@
     <t>哈尔滨信息工程学院</t>
   </si>
   <si>
-    <t>年级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>人数</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -67,6 +63,10 @@
   <si>
     <t>课程类型</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>开课年级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -77,7 +77,7 @@
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,15 +116,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -147,7 +138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -171,25 +162,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -199,7 +177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -208,28 +186,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -237,7 +200,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -521,398 +487,398 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="14.77734375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="17.21875" style="8" customWidth="1"/>
-    <col min="10" max="10" width="32" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="32" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6">
-        <v>2018</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F1048576" xr:uid="{5F3554B6-CA3B-4C7E-91A6-718F5CF90437}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576" xr:uid="{5F3554B6-CA3B-4C7E-91A6-718F5CF90437}">
       <formula1>"考试,考察"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H1048576" xr:uid="{38EAA81E-4C63-4A76-851E-6F13AEC460B6}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{38EAA81E-4C63-4A76-851E-6F13AEC460B6}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>

--- a/tmpp-core/src/main/resources/execute_plan_template.xlsx
+++ b/tmpp-core/src/main/resources/execute_plan_template.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE155ED-0A13-4C7D-83E3-0FE4BFAB2CB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D12237-AFD5-44B6-BA93-82DCD7B626BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>开课年级</t>
+    <t>年级</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -138,7 +138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -166,8 +166,36 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -177,7 +205,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -203,7 +231,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -487,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -507,7 +538,7 @@
     <col min="10" max="10" width="32" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
@@ -519,57 +550,55 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -581,7 +610,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -593,7 +622,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -605,7 +634,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -617,7 +646,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -629,7 +658,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -641,7 +670,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -653,7 +682,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -665,7 +694,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -677,7 +706,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -689,7 +718,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -701,7 +730,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -713,7 +742,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -871,14 +900,14 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576" xr:uid="{5F3554B6-CA3B-4C7E-91A6-718F5CF90437}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F1048576" xr:uid="{5F3554B6-CA3B-4C7E-91A6-718F5CF90437}">
       <formula1>"考试,考察"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{38EAA81E-4C63-4A76-851E-6F13AEC460B6}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H1048576" xr:uid="{38EAA81E-4C63-4A76-851E-6F13AEC460B6}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
